--- a/data/long_bre/P23_8-Edad-long_bre.xlsx
+++ b/data/long_bre/P23_8-Edad-long_bre.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,10 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,12 +540,16 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -551,12 +566,32 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -567,6 +602,10 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -576,27 +615,47 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-7,41</t>
+          <t>-7,52</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,09</t>
+          <t>3,4</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-32,16%</t>
+          <t>-3,75</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>40,44%</t>
+          <t>2,16</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-33,75%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>32,05%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-17,06%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>11,79%</t>
         </is>
       </c>
     </row>
@@ -609,22 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-18,92; 5,24</t>
+          <t>-18,78; 2,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 12,99</t>
+          <t>-6,6; 12,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-63,56; 34,95</t>
+          <t>-20,23; 8,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-35,74; 242,47</t>
+          <t>-17,64; 18,98</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-64,12; 19,29</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-42,08; 243,42</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-62,78; 73,89</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-64,36; 210,85</t>
         </is>
       </c>
     </row>
@@ -632,27 +711,47 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,38</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,99%</t>
+          <t>-10,66</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>-1,13</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-1,11%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1,15%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-16,29%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-1,95%</t>
         </is>
       </c>
     </row>
@@ -665,22 +764,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-15,06; 11,39</t>
+          <t>-13,63; 13,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,0; 17,88</t>
+          <t>-11,49; 13,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-19,92; 18,35</t>
+          <t>-26,34; 8,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,54; 29,57</t>
+          <t>-23,73; 21,09</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-18,04; 21,45</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-14,82; 22,71</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-35,19; 17,11</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-34,22; 49,74</t>
         </is>
       </c>
     </row>
@@ -688,27 +807,47 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,78</t>
+          <t>8,3</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-6,92</t>
+          <t>-4,22</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>111,97%</t>
+          <t>14,41</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-33,3%</t>
+          <t>-1,03</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>108,71%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>-23,55%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>114,4%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-4,35%</t>
         </is>
       </c>
     </row>
@@ -721,54 +860,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 18,69</t>
+          <t>-1,12; 16,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-20,52; 3,42</t>
+          <t>-14,79; 5,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,36; 488,08</t>
+          <t>1,94; 27,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-66,45; 29,76</t>
+          <t>-18,32; 16,12</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-17,13; 440,2</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-58,52; 52,88</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-0,01; 411,63</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-55,67; 117,78</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-6,02</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,08</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-27,18%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-16,71%</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -781,50 +956,94 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-26,82; 4,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-13,11; 5,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-72,59; 29,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-63,6; 73,88</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,66</t>
+          <t>-7,39</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8,81</t>
+          <t>-2,74</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>14,0%</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>-1,94</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-31,52%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-21,49%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>11,94%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-11,64%</t>
         </is>
       </c>
     </row>
@@ -837,22 +1056,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 26,73</t>
+          <t>-27,89; 3,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 25,59</t>
+          <t>-13,77; 4,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 55,61</t>
+          <t>-6,58; 11,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 46,64</t>
+          <t>-17,06; 11,75</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-72,47; 22,19</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-70,07; 56,84</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-42,52; 170,47</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-63,77; 158,97</t>
         </is>
       </c>
     </row>
@@ -860,27 +1099,47 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-2,64</t>
+          <t>11,15</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-6,73</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-16,55%</t>
+          <t>6,52</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-38,3%</t>
+          <t>-7,98</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>18,71%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>14,4%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>10,37%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-11,68%</t>
         </is>
       </c>
     </row>
@@ -893,54 +1152,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-17,22; 6,69</t>
+          <t>-2,87; 30,11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-24,55; 2,35</t>
+          <t>-2,63; 26,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-69,46; 67,75</t>
+          <t>-10,49; 23,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-77,73; 28,12</t>
+          <t>-27,02; 14,56</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-4,07; 64,51</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-3,42; 47,43</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-14,35; 45,68</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-34,28; 27,87</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-4,64</t>
+          <t>-3,75</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,77</t>
+          <t>-7,26</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-18,74%</t>
+          <t>-7,92</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-19,48%</t>
+          <t>9,92</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>-22,13%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>-40,62%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-31,17%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>66,13%</t>
         </is>
       </c>
     </row>
@@ -953,22 +1248,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-13,4; 4,25</t>
+          <t>-19,66; 6,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-12,34; 3,23</t>
+          <t>-27,52; 2,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-45,38; 21,02</t>
+          <t>-26,58; 5,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-56,42; 35,68</t>
+          <t>-9,79; 24,39</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-69,8; 67,48</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-79,81; 26,56</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-67,63; 33,73</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-41,76; 370,53</t>
         </is>
       </c>
     </row>
@@ -976,27 +1291,47 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>3,59</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-0,88%</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1009,50 +1344,94 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 14,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-9,74; 9,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-11,26; 27,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-12,52; 15,61</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>-2,86</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>-2,82</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>6,85%</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>23,84%</t>
+          <t>-0,08</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-12,38%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-19,64%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2,47%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-0,39%</t>
         </is>
       </c>
     </row>
@@ -1065,54 +1444,90 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 8,96</t>
+          <t>-11,56; 6,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 10,67</t>
+          <t>-11,56; 3,48</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-40,89; 87,81</t>
+          <t>-7,01; 8,86</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-19,49; 102,99</t>
+          <t>-10,75; 11,33</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-40,16; 36,47</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-55,3; 36,92</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-33,68; 79,26</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-43,19; 78,18</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-6,36</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-28,16%</t>
+          <t>6,18</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>10,79%</t>
+          <t>7,48</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>3,27%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-1,7%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>10,07%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>14,18%</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1540,42 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-15,66; 2,0</t>
+          <t>-9,2; 12,4</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 9,24</t>
+          <t>-10,12; 7,68</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-54,21; 12,4</t>
+          <t>-5,36; 16,02</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-29,15; 72,07</t>
+          <t>-5,92; 21,43</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-13,48; 22,76</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-13,07; 11,66</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-8,32; 28,86</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-9,68; 49,0</t>
         </is>
       </c>
     </row>
@@ -1148,27 +1583,47 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-4,93</t>
+          <t>4,04</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>-6,59</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-7,59%</t>
+          <t>-7,4</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>5,51%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>29,69%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-29,67%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-26,91%</t>
         </is>
       </c>
     </row>
@@ -1181,22 +1636,42 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 12,52</t>
+          <t>-8,65; 8,09</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-13,52; 3,83</t>
+          <t>-2,46; 10,57</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-12,48; 24,4</t>
+          <t>-14,6; 1,48</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-19,55; 6,39</t>
+          <t>-20,96; 4,37</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>-40,65; 72,01</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>-14,76; 101,74</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-53,73; 8,74</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-59,36; 23,8</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1679,47 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>4,3</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>3,08</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>21,54%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>17,23%</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1237,54 +1732,94 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 12,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 9,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-15,92; 76,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-17,53; 68,6</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-3,25</t>
+          <t>-6,19</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,87</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-14,17%</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-5,27%</t>
+          <t>-12,97</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>-27,4%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>7,07%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>4,81%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-36,19%</t>
         </is>
       </c>
     </row>
@@ -1297,22 +1832,42 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-13,69; 6,51</t>
+          <t>-16,78; 1,44</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-8,84; 6,22</t>
+          <t>-6,9; 8,8</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-46,15; 36,11</t>
+          <t>-6,99; 9,48</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-41,12; 49,76</t>
+          <t>-26,41; -0,56</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-55,9; 10,16</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-32,66; 64,79</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-30,93; 67,84</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-59,18; 2,02</t>
         </is>
       </c>
     </row>
@@ -1320,27 +1875,47 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-1,48</t>
+          <t>-4,92</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-2,31%</t>
+          <t>21,24</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>2,63%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-7,6%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>3,49%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>48,68%</t>
         </is>
       </c>
     </row>
@@ -1353,22 +1928,42 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 14,07</t>
+          <t>-8,41; 11,95</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-11,56; 8,5</t>
+          <t>-13,28; 4,71</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-15,81; 27,77</t>
+          <t>-8,48; 14,32</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-16,36; 14,32</t>
+          <t>7,78; 35,75</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-13,3; 23,58</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-19,26; 8,68</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-13,92; 33,63</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>13,85; 102,76</t>
         </is>
       </c>
     </row>
@@ -1376,27 +1971,47 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>4,68</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>2,35</t>
+          <t>3,67</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>-2,79</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>11,98%</t>
+          <t>-8,28</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>23,14%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>20,74%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>-10,29%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>-40,3%</t>
         </is>
       </c>
     </row>
@@ -1409,54 +2024,90 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-10,17; 10,11</t>
+          <t>-3,44; 13,33</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 10,81</t>
+          <t>-3,31; 10,06</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-42,77; 71,9</t>
+          <t>-17,77; 6,86</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-25,34; 72,7</t>
+          <t>-17,9; 0,98</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-14,3; 81,04</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-14,85; 69,88</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-49,55; 32,23</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-68,21; 9,0</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>-0,36%</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1469,50 +2120,94 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-14,97; 13,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 8,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-43,89; 75,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-44,9; 76,4</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>-3,05</t>
+          <t>-3,66</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>5,97</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-5,07%</t>
+          <t>-3,24</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>10,24%</t>
+          <t>-0,41</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>-15,81%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>-7,45%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>-14,41%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>-1,91%</t>
         </is>
       </c>
     </row>
@@ -1525,22 +2220,42 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-18,86; 11,83</t>
+          <t>-13,39; 6,51</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 18,15</t>
+          <t>-9,14; 6,63</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-26,92; 23,2</t>
+          <t>-14,44; 7,48</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-10,78; 37,34</t>
+          <t>-12,54; 10,99</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>-45,76; 37,45</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>-43,13; 52,87</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>-52,09; 42,88</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>-44,53; 71,44</t>
         </is>
       </c>
     </row>
@@ -1548,27 +2263,47 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>2,9</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>-5,91</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>20,44%</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>-24,29%</t>
+          <t>-10,85</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>4,39%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>-2,72%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>-0,02%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>-18,59%</t>
         </is>
       </c>
     </row>
@@ -1581,54 +2316,90 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 13,0</t>
+          <t>-8,65; 15,29</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-15,5; 4,74</t>
+          <t>-11,34; 7,59</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-29,57; 146,08</t>
+          <t>-13,23; 12,27</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-54,58; 24,44</t>
+          <t>-24,55; 4,33</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>-14,41; 30,38</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>-16,36; 12,77</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>-20,42; 23,07</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>-37,01; 8,78</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>-4,44</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>3,01</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>-18,9%</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>11,25</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>5,79%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>15,86%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>18,32%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>55,35%</t>
         </is>
       </c>
     </row>
@@ -1641,22 +2412,42 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>-9,29; 0,18</t>
+          <t>-10,25; 10,33</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 3,24</t>
+          <t>-5,12; 10,53</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>-34,27; 0,93</t>
+          <t>-6,83; 12,64</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>-22,35; 26,04</t>
+          <t>-2,12; 23,16</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>-40,02; 71,01</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>-22,03; 73,75</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>-29,85; 98,76</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>-10,55; 174,99</t>
         </is>
       </c>
     </row>
@@ -1664,27 +2455,47 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1697,50 +2508,94 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 7,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 5,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 13,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 8,87</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>16,24%</t>
+          <t>9,17</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>-6,64%</t>
+          <t>6,66</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>0,21%</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>-4,06%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>83,34%</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>44,21%</t>
         </is>
       </c>
     </row>
@@ -1753,37 +2608,740 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 6,14</t>
+          <t>-13,69; 13,53</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 2,36</t>
+          <t>-10,66; 8,74</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>-9,07; 44,99</t>
+          <t>-2,56; 20,33</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>-24,67; 14,71</t>
+          <t>-7,17; 24,16</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="inlineStr">
+        <is>
+          <t>-41,55; 76,1</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>-45,39; 70,68</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>-25,16; 363,59</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>-45,38; 260,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>-2,44</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>6,25</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>-12,09</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>-5,5</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>-4,1%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>10,85%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>-20,12%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>-9,47%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>-18,35; 12,1</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>-5,89; 19,22</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>-26,47; 4,93</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>-24,92; 14,36</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>-27,29; 24,35</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>-9,05; 38,57</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>-39,88; 9,11</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>-38,96; 28,76</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>2,38</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>-5,54</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>2,91</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>-1,16</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>15,84%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>-22,28%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>10,07%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>-4,33%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>-6,57; 11,48</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>-14,96; 4,96</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>-13,78; 16,72</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>-16,9; 16,72</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>-33,89; 118,0</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>-51,5; 26,17</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>-37,05; 77,73</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>-51,66; 94,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>-4,34</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>-0,42</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>1,12</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>-1,37</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>-18,63%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>-2,82%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>6,68%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>-6,36%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>-9,07; 0,51</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>-3,85; 3,12</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>-3,44; 5,03</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>-7,3; 4,13</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>-34,38; 2,54</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>-22,91; 24,92</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>-17,85; 35,05</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>-28,93; 22,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>2,05</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>0,94</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>-1,15</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>1,02</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>3,38%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>1,41%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>-1,91%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>1,82%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>-3,28; 6,92</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>-3,47; 5,72</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>-6,73; 4,88</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>-6,2; 8,18</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>-5,16; 12,19</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>-4,98; 8,92</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>-10,66; 8,64</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>-10,57; 15,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>2,29</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>-0,52</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>0,35</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>14,24%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>-2,85%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>0,13%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>1,57%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>-1,95; 6,34</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>-4,95; 3,05</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>-5,37; 5,22</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>-5,98; 6,39</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>-9,93; 47,63</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>-23,68; 18,42</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>-20,39; 26,71</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>-23,12; 33,31</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_bre/P23_8-Edad-long_bre.xlsx
+++ b/data/long_bre/P23_8-Edad-long_bre.xlsx
@@ -624,7 +624,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -720,7 +720,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -816,7 +816,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -916,7 +916,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1012,7 +1012,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1108,7 +1108,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1304,7 +1304,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1400,7 +1400,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1500,7 +1500,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1596,7 +1596,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1692,7 +1692,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
@@ -1792,7 +1792,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C40" s="5" t="n">
@@ -1888,7 +1888,7 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C43" s="5" t="n">
@@ -1984,7 +1984,7 @@
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C46" s="5" t="n">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C49" s="5" t="n">
@@ -2180,7 +2180,7 @@
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C52" s="5" t="n">
@@ -2276,7 +2276,7 @@
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C55" s="5" t="n">
@@ -2376,7 +2376,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C58" s="5" t="n">
@@ -2472,7 +2472,7 @@
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C61" s="5" t="n">
@@ -2568,7 +2568,7 @@
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C64" s="5" t="n">
